--- a/modules/yolo_files/class_summary_df_yolo.xlsx
+++ b/modules/yolo_files/class_summary_df_yolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8552631578947368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H3" t="n">
-        <v>0.883495145631068</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2083333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9658119658119658</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8188405797101449</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8681318681318682</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,20 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>94</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8076923076923077</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +674,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.855072463768116</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7763157894736842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +702,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8055555555555556</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5742574257425742</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +730,20 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9464285714285714</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +756,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9591836734693877</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.573170731707317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +784,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9862068965517241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +812,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +840,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9512195121951219</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4936708860759494</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="16">
@@ -868,26 +864,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>invalid_stamp</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -896,26 +892,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ladder</t>
+          <t>key</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7714285714285715</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -924,26 +920,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lock</t>
+          <t>ladder</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.859375</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -952,26 +948,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lotus</t>
+          <t>lock</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8633540372670807</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9391891891891891</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="20">
@@ -980,26 +976,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>loud_speaker</t>
+          <t>lotus</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1232876712328767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1008,26 +1004,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mother_and_child</t>
+          <t>loud_speaker</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5581395348837209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1036,26 +1032,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>namaste</t>
+          <t>mother_and_child</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.941747572815534</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9509803921568627</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="23">
@@ -1064,26 +1060,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nepali_big_basket</t>
+          <t>namaste</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.139344262295082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1092,26 +1088,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nepali_cap</t>
+          <t>nepali_big_basket</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>124</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8392857142857143</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.8867924528301887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1120,26 +1114,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nepali_jug</t>
+          <t>nepali_cap</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8227848101265823</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7558139534883721</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="26">
@@ -1148,26 +1142,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nepali_madal</t>
+          <t>nepali_jug</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7872340425531915</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="27">
@@ -1176,26 +1170,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nepali_small_basket</t>
+          <t>nepali_madal</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8656716417910447</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8721804511278195</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="28">
@@ -1204,26 +1198,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>nepali_small_basket</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06382978723404255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1232,26 +1226,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.7826086956521739</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0.4864864864864865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1260,26 +1252,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>roaster</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8240740740740741</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.956989247311828</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="31">
@@ -1288,26 +1280,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>roaster</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5894736842105263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1316,26 +1308,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>stamp</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.44</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1340,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1368,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9259259259259259</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1396,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8615384615384616</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7887323943661971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1424,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6804123711340206</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1452,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4269662921348314</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1480,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8607594936708861</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1508,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
         <v>9</v>
       </c>
-      <c r="E39" t="n">
-        <v>68</v>
-      </c>
       <c r="F39" t="n">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
-        <v>0.847457627118644</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.423728813559322</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1536,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8608695652173913</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8918918918918919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1568,26 +1560,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>water_glass</t>
+          <t>valid_stamp</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9174311926605505</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
@@ -1596,26 +1588,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>water_jug</t>
+          <t>water_glass</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7395833333333334</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9594594594594594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1624,26 +1616,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>woman_man</t>
+          <t>water_jug</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9058823529411765</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9625</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="44">
@@ -1652,26 +1644,52 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>woman_man</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>wooden_wheel</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>138</v>
-      </c>
-      <c r="D44" t="n">
-        <v>40</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>180</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.7752808988764045</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.9857142857142858</v>
+      <c r="C45" t="n">
+        <v>14</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>19</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modules/yolo_files/class_summary_df_yolo.xlsx
+++ b/modules/yolo_files/class_summary_df_yolo.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.875</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.865979381443299</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.6938775510204082</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.7448979591836735</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.865979381443299</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9775280898876404</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="8">
@@ -648,20 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9431818181818182</v>
+      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.8469387755102041</v>
       </c>
     </row>
     <row r="9">
@@ -674,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6951219512195121</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="10">
@@ -702,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -730,20 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>105</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9340659340659341</v>
+      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.8585858585858586</v>
       </c>
     </row>
     <row r="12">
@@ -756,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.8977272727272727</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.8061224489795918</v>
       </c>
     </row>
     <row r="13">
@@ -784,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9489795918367347</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="14">
@@ -812,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.673469387755102</v>
       </c>
     </row>
     <row r="15">
@@ -840,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="16">
@@ -868,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="17">
@@ -896,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9540229885057471</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.8469387755102041</v>
       </c>
     </row>
     <row r="18">
@@ -924,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
     </row>
     <row r="19">
@@ -952,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7578947368421053</v>
       </c>
     </row>
     <row r="20">
@@ -980,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.673469387755102</v>
       </c>
     </row>
     <row r="21">
@@ -1008,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0.6082474226804123</v>
       </c>
     </row>
     <row r="22">
@@ -1036,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="23">
@@ -1064,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.8775510204081632</v>
       </c>
     </row>
     <row r="24">
@@ -1092,20 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>103</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9560439560439561</v>
+      </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="25">
@@ -1118,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9222222222222223</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8383838383838383</v>
       </c>
     </row>
     <row r="26">
@@ -1146,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="27">
@@ -1174,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7840909090909091</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.7582417582417582</v>
       </c>
     </row>
     <row r="28">
@@ -1202,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.8505747126436781</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.8314606741573034</v>
       </c>
     </row>
     <row r="29">
@@ -1230,20 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>104</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6567164179104478</v>
+      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.5432098765432098</v>
       </c>
     </row>
     <row r="30">
@@ -1256,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="31">
@@ -1284,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="32">
@@ -1312,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.6630434782608695</v>
       </c>
     </row>
     <row r="33">
@@ -1340,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="34">
@@ -1368,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F34" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5</v>
+        <v>0.7525773195876289</v>
       </c>
     </row>
     <row r="35">
@@ -1396,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="36">
@@ -1424,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="37">
@@ -1452,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="38">
@@ -1480,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0.7857142857142857</v>
@@ -1508,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F39" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3146067415730337</v>
       </c>
     </row>
     <row r="40">
@@ -1536,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.8080808080808081</v>
       </c>
     </row>
     <row r="41">
@@ -1564,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="42">
@@ -1592,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.9072164948453608</v>
       </c>
     </row>
     <row r="43">
@@ -1620,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="44">
@@ -1648,20 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.978494623655914</v>
+      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.9191919191919192</v>
       </c>
     </row>
     <row r="45">
@@ -1674,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9081632653061225</v>
       </c>
     </row>
   </sheetData>
